--- a/resources/test1.xlsx
+++ b/resources/test1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,6 +538,80 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PATH</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HOME_PAHT</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>/Users/zombic/NASBK/0.NEW/2.Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RESOURCE_PATH</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>$(HOME_PATH)/convert_xlsx_ini/resource</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>XLSX_PATH</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>$(RESOURCE_PATH)/testexcel.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>INI_PATH</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>$(RESOURCE_PATH)/testconf.ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>XLSX</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>XLSX_SHEET</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SWITCH</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
